--- a/SNS.xlsx
+++ b/SNS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="80" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1700" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,18 +149,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Basic認証下でも.htaccess に以下の記述を追加することにより、
-クローラー（Facebook、Twitter、LINE）の
-アクセスが許可され、OG情報を確認することが可能です。
-----------
-SetEnvIf User-Agent "Twitterbot" sns_crawler
-SetEnvIf User-Agent "^facebookexternalhit.*$" sns_crawler
-SetEnvIf User-Agent "^facebookplatform.*$" sns_crawler
-Allow from env=sns_crawler
-----------</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シェア数</t>
     <rPh sb="3" eb="4">
       <t>スウ</t>
@@ -197,6 +185,25 @@
   <si>
     <t>↑Feed dialog
 に、シェアする内容（タイトルやキャプション、説明文）をカスタマイズすることができる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Basic認証下でも.htaccess に以下の記述を追加することにより、
+クローラー（Facebook、Twitter、LINE）の
+アクセスが許可され、OG情報を確認することが可能です。
+----------
+require valid-user
+Satisfy Any
+Order Deny,Allow
+# FB のクローラを許可
+SetEnvIf User-Agent "^facebookexternalhit.*$" fb_crawler
+SetEnvIf User-Agent "^facebookplatform.*$" fb_crawler
+Allow from env=fb_crawler
+# Twitter のクローラを許可
+SetEnvIf User-Agent "^Twitterbot.*$" tw_crawler
+Allow from env=tw_crawler
+deny from all
+----------</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -660,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -688,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -714,25 +721,25 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -859,9 +866,9 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="31" spans="1:3" ht="171">
+    <row r="31" spans="1:3" ht="399">
       <c r="C31" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/SNS.xlsx
+++ b/SNS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Facebook</t>
     <phoneticPr fontId="1"/>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OGPデバッガー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Twitter</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -45,18 +41,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Twitterカード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://cards-dev.twitter.com/validator</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検証ツール</t>
-    <rPh sb="0" eb="2">
-      <t>ケンショウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -88,17 +73,6 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://yokotashurin.com/sns/lineit-loadbutton.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LINEで送る</t>
-    <rPh sb="5" eb="6">
-      <t>オク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -206,12 +180,39 @@
 ----------</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ツール名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OGPデバッガー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitterカード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検証ツール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINEで送る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://yokotashurin.com/sns/lineit-loadbutton.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,13 +227,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
@@ -303,40 +297,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="21">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -665,210 +682,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C31"/>
+  <dimension ref="A2:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="91.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="109.83203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="12.83203125" style="1"/>
+    <col min="1" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="91.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="109.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="38">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="38">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="38">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="399">
+      <c r="D29" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="38">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="31" spans="1:3" ht="399">
-      <c r="C31" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/SNS.xlsx
+++ b/SNS.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="12080" yWindow="1200" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Facebook</t>
     <phoneticPr fontId="1"/>
@@ -89,59 +90,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>↑上記の場合、URLにパラメータを付与することでLINE側のキャッシュを回避することが可能
-https://lineit.line.me/share/ui?url=〜〜〜〜%2Fshare_01.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <charset val="128"/>
-      </rPr>
-      <t>?test</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <charset val="128"/>
-      </rPr>
-      <t>#/</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シェア数</t>
     <rPh sb="3" eb="4">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>https://graph.facebook.com/?scrape=true&amp;id=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <charset val="128"/>
-      </rPr>
-      <t>URL</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -205,6 +157,70 @@
   </si>
   <si>
     <t>http://yokotashurin.com/sns/lineit-loadbutton.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>https://graph.facebook.com/?scrape=true&amp;id=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <charset val="128"/>
+      </rPr>
+      <t>URL</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>↑上記の場合、URLにパラメータを付与することでLINE側のキャッシュを回避することが可能
+https://lineit.line.me/share/ui?url=〜〜〜〜%2Fshare_01.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <charset val="128"/>
+      </rPr>
+      <t>?test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <charset val="128"/>
+      </rPr>
+      <t>#/</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google クローラーの巡回依頼</t>
+  </si>
+  <si>
+    <t>https://www.google.com/webmasters/tools/submit-url</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://xxxxxxx.xxx/
+「 / 」の前までを入力</t>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -229,12 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -253,7 +263,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <charset val="128"/>
@@ -299,36 +315,39 @@
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -684,29 +703,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="91.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="109.83203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.83203125" style="1"/>
+    <col min="1" max="2" width="14.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="91.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="109.83203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="12.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -715,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -740,32 +759,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="38">
+    <row r="6" spans="1:4" ht="32">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -791,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>4</v>
@@ -801,7 +820,7 @@
     <row r="13" spans="1:4">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>5</v>
@@ -839,10 +858,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -856,12 +875,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="38">
+    <row r="20" spans="1:4" ht="32">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -900,9 +919,9 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="399">
+    <row r="29" spans="1:4" ht="336">
       <c r="D29" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -915,4 +934,43 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="58.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="31">
+      <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>